--- a/pred_ohlcv/54_21/2020-01-19 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XSR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>7113176.589385741</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7113176.589385741</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2391982.447932214</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1881125.163232215</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1838832.609432214</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1765672.578071427</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2154571.453271427</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2300361.028271427</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2561628.256871427</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2561628.256871427</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2418909.022471427</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2567035.466771428</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2247256.515071427</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1027401.479587147</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1027401.479587147</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1188881.687387147</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-849528.3313871472</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1088934.114787147</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1156990.395387147</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1524491.846087147</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1530686.080587147</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3517809.653807876</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3517809.653807876</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-3517086.387207875</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3054822.937007876</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2347107.964107876</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1216637.561207876</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2307002.945807876</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2218518.732107876</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2907997.952407876</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2896535.799907876</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3251336.008707876</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3174405.722107876</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-4049693.512307876</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-4047749.044907876</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3609803.572907876</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4044168.924507876</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4044168.924507876</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3633211.346207876</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3801623.830107876</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4613330.737707876</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-5456384.203407875</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-6475515.999607875</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-6384029.583307875</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-6747043.718307875</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-6742662.739407875</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-7536797.840007875</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-7740496.501907875</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-7888847.085907875</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-7888847.085907875</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-8423689.981007874</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-7978871.288907874</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-6253403.250668219</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-6639467.15676822</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-6405158.15676822</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-11494505.14690946</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-11106881.55690946</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-11127052.81360946</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-11120971.85590946</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-11488167.35330946</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-11569685.95890946</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-11542691.52230946</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-11125314.40940946</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-11626538.51632767</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-11626026.86942767</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-11615644.34782767</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-12723962.56671333</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-12723962.56671333</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-12395493.07961333</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-12725286.79601333</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-13066388.98291333</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-12936034.70601333</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-12936034.70601333</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-12522705.27061333</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-13360017.63162836</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-13622026.45872836</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-13917478.20702836</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-13916978.20702836</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-14264047.58512836</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-14054116.60082836</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-14053616.60082836</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-14053116.60082836</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-14287719.94099858</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-14287719.94099858</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-13854207.78289858</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-14455700.56239858</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-14282217.24999858</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-14281670.26189858</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-13952305.16969858</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-12621976.79942313</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-12014000.80212313</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XSR ohlcv.xlsx
@@ -2498,7 +2498,7 @@
         <v>-2391982.447932214</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1881125.163232215</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1838832.609432214</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1765672.578071427</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2154571.453271427</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2300361.028271427</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2561628.256871427</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2561628.256871427</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2418909.022471427</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2567035.466771428</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2247256.515071427</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1027401.479587147</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1027401.479587147</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1188881.687387147</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-849528.3313871472</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1088934.114787147</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1156990.395387147</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1524491.846087147</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1530686.080587147</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3517809.653807876</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3517809.653807876</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-3517086.387207875</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3054822.937007876</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2347107.964107876</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2307002.945807876</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2218518.732107876</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2907997.952407876</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2896535.799907876</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3251336.008707876</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3174405.722107876</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-4049693.512307876</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-4047749.044907876</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3609803.572907876</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4044168.924507876</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4044168.924507876</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3633211.346207876</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3801623.830107876</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4613330.737707876</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-5456384.203407875</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-6475515.999607875</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-6384029.583307875</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-6747043.718307875</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-6742662.739407875</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-7536797.840007875</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-7740496.501907875</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-7888847.085907875</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-7888847.085907875</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-8423689.981007874</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-7978871.288907874</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-6253403.250668219</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-6639467.15676822</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-6405158.15676822</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-11494505.14690946</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-11106881.55690946</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-11127052.81360946</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-11120971.85590946</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-11488167.35330946</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-11569685.95890946</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-11542691.52230946</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-11125314.40940946</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-10815418.79030946</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-10729231.69880946</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-10450526.69050946</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-11626538.51632767</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-11626026.86942767</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-11615644.34782767</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-13315046.28860946</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-12723962.56671333</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-12725286.79601333</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-13066388.98291333</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-12936034.70601333</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-12936034.70601333</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-12522705.27061333</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-13360017.63162836</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-13622026.45872836</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-13917478.20702836</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-13916978.20702836</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-14264047.58512836</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-14054116.60082836</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-14053616.60082836</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-14053116.60082836</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-14287719.94099858</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-14287719.94099858</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-13854207.78289858</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-14455700.56239858</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-14282217.24999858</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-14281670.26189858</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-13952305.16969858</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-12621976.79942313</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-12014000.80212313</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
